--- a/data/AssigningToTest.xlsx
+++ b/data/AssigningToTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AddStream" sheetId="1" r:id="rId1"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B2:B8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -754,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +802,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>

--- a/data/AssigningToTest.xlsx
+++ b/data/AssigningToTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="AddStream" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,16 @@
     <sheet name="checkNotActualCand" sheetId="7" r:id="rId6"/>
     <sheet name="checkNewTimeCand" sheetId="8" r:id="rId7"/>
     <sheet name="checkAssignedToTestCand" sheetId="5" r:id="rId8"/>
+    <sheet name="invitateSecondTime" sheetId="9" r:id="rId9"/>
+    <sheet name="checkBannedCandidate" sheetId="11" r:id="rId10"/>
+    <sheet name="invitateThirdTime" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>AddStream</t>
   </si>
@@ -87,6 +90,15 @@
   </si>
   <si>
     <t>checkNewTimeCandidates</t>
+  </si>
+  <si>
+    <t>invitateSecondTime</t>
+  </si>
+  <si>
+    <t>invitateThirdTime</t>
+  </si>
+  <si>
+    <t>checkBannedCandidate</t>
   </si>
 </sst>
 </file>
@@ -466,6 +478,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
@@ -579,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD21"/>
     </sheetView>
   </sheetViews>
@@ -755,7 +830,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -786,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -802,7 +877,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,4 +961,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/AssigningToTest.xlsx
+++ b/data/AssigningToTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AddStream" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/AssigningToTest.xlsx
+++ b/data/AssigningToTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddStream" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>AddStream</t>
   </si>
@@ -99,6 +99,42 @@
   </si>
   <si>
     <t>checkBannedCandidate</t>
+  </si>
+  <si>
+    <t>Olesia;Kotsiuba;;21.09.1990;Olesia.Kotsiuba@gmail.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Daria;Poluektova;;21.09.1990;dpoluectova@gmail.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Tetyana;Shyrshova;;21.09.1990;Tetyana_Shyrshova@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Roman;Riznyk;;21.09.1990;Roman_Riznyk@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>iryna;perekhod;;21.09.1990;iryna_perekhod@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Anastasiia;Borodaievska;;21.09.1990;Anastasiia_Borodsievska@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Denys;Novikov;;21.09.1990;dnovikov4@gmail.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Roman;Rastiehaiev;;21.09.1990;Roman_Rastiehaiev@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Viktoriia;Panko;;21.09.1990;Viktoriia_Panko@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Yehor;Yeshchenko;;21.09.1990;Yehor_Yeshchenko@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Olha;Borodkina;;21.09.1990;Olha_Borodkina@epam.com;+045894156114</t>
+  </si>
+  <si>
+    <t>Rostyslav;Biletskyi;;21.09.1990;rostyslav.biletskyi@gmail.com;+045894156114</t>
   </si>
 </sst>
 </file>
@@ -543,24 +579,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -576,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -584,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -592,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -600,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -608,13 +644,121 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -652,10 +796,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="A9:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,6 +890,12 @@
       <c r="C8" s="5">
         <v>7</v>
       </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/AssigningToTest.xlsx
+++ b/data/AssigningToTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>AddStream</t>
   </si>
@@ -99,42 +99,6 @@
   </si>
   <si>
     <t>checkBannedCandidate</t>
-  </si>
-  <si>
-    <t>Olesia;Kotsiuba;;21.09.1990;Olesia.Kotsiuba@gmail.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Daria;Poluektova;;21.09.1990;dpoluectova@gmail.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Tetyana;Shyrshova;;21.09.1990;Tetyana_Shyrshova@epam.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Roman;Riznyk;;21.09.1990;Roman_Riznyk@epam.com;+045894156114</t>
-  </si>
-  <si>
-    <t>iryna;perekhod;;21.09.1990;iryna_perekhod@epam.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Anastasiia;Borodaievska;;21.09.1990;Anastasiia_Borodsievska@epam.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Denys;Novikov;;21.09.1990;dnovikov4@gmail.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Roman;Rastiehaiev;;21.09.1990;Roman_Rastiehaiev@epam.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Viktoriia;Panko;;21.09.1990;Viktoriia_Panko@epam.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Yehor;Yeshchenko;;21.09.1990;Yehor_Yeshchenko@epam.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Olha;Borodkina;;21.09.1990;Olha_Borodkina@epam.com;+045894156114</t>
-  </si>
-  <si>
-    <t>Rostyslav;Biletskyi;;21.09.1990;rostyslav.biletskyi@gmail.com;+045894156114</t>
   </si>
 </sst>
 </file>
@@ -581,14 +545,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="A9:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="67" customWidth="1"/>
+    <col min="2" max="2" width="122.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -604,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -612,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -620,7 +584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -628,7 +592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -636,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -653,111 +617,39 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="5"/>
     </row>
   </sheetData>
